--- a/Consolidated Algorithm Benchmark.xlsx
+++ b/Consolidated Algorithm Benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mrv/GitHub/rec-engine-cs205l-w19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C719485-3CDB-6747-935A-8CB5F1EFFF75}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0E02BA-C095-AA4E-8BA0-359B105A126B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -20,37 +20,21 @@
     <sheet name="Fit Time" sheetId="7" r:id="rId5"/>
     <sheet name="Performance Chart" sheetId="5" r:id="rId6"/>
     <sheet name="Performance" sheetId="4" r:id="rId7"/>
-    <sheet name="Algorithm_Benchmark_small_unfil" sheetId="1" r:id="rId8"/>
+    <sheet name="All" sheetId="1" r:id="rId8"/>
+    <sheet name="Sheet3" sheetId="12" r:id="rId9"/>
+    <sheet name="Performance Against Random" sheetId="14" r:id="rId10"/>
+    <sheet name="Sheet4" sheetId="13" r:id="rId11"/>
+    <sheet name="All (2)" sheetId="11" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Algorithm_Benchmark_small_unfil!$A$1:$H$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">All!$A$1:$H$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'All (2)'!$A$1:$J$61</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Performance!$A$1:$F$1</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'Test Time'!$A$2:$A$14</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Test Time'!$B$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Test Time'!$F$2:$F$14</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Test Time'!$B$2:$B$14</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Test Time'!$C$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Test Time'!$C$2:$C$14</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Test Time'!$D$1</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Test Time'!$D$2:$D$14</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Test Time'!$E$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Test Time'!$E$2:$E$14</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Test Time'!$F$1</definedName>
-    <definedName name="_xlchart.v2.11" hidden="1">'Test Time'!$A$2:$A$14</definedName>
-    <definedName name="_xlchart.v2.12" hidden="1">'Test Time'!$B$1</definedName>
-    <definedName name="_xlchart.v2.13" hidden="1">'Test Time'!$B$2:$B$14</definedName>
-    <definedName name="_xlchart.v2.14" hidden="1">'Test Time'!$C$1</definedName>
-    <definedName name="_xlchart.v2.15" hidden="1">'Test Time'!$C$2:$C$14</definedName>
-    <definedName name="_xlchart.v2.16" hidden="1">'Test Time'!$D$1</definedName>
-    <definedName name="_xlchart.v2.17" hidden="1">'Test Time'!$D$2:$D$14</definedName>
-    <definedName name="_xlchart.v2.18" hidden="1">'Test Time'!$E$1</definedName>
-    <definedName name="_xlchart.v2.19" hidden="1">'Test Time'!$E$2:$E$14</definedName>
-    <definedName name="_xlchart.v2.20" hidden="1">'Test Time'!$F$1</definedName>
-    <definedName name="_xlchart.v2.21" hidden="1">'Test Time'!$F$2:$F$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="36" r:id="rId9"/>
+    <pivotCache cacheId="25" r:id="rId13"/>
+    <pivotCache cacheId="26" r:id="rId14"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -64,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="42">
   <si>
     <t>Algorithm</t>
   </si>
@@ -178,6 +162,18 @@
   </si>
   <si>
     <t>Average of test_time</t>
+  </si>
+  <si>
+    <t>Normal RMSE</t>
+  </si>
+  <si>
+    <t>Test Below Random</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Average of Test Below Random</t>
   </si>
 </sst>
 </file>
@@ -768,7 +764,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -781,12 +777,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+              <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Test Time Across 14 Algorithms, 2 Data Sets, and 4 Precoditioning Methods</a:t>
+              <a:t>Test Time</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US">
+            <a:endParaRPr lang="en-US" sz="1200">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
@@ -805,7 +801,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1502,7 +1498,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1616,7 +1612,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1644,7 +1640,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1658,7 +1654,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1741,7 +1737,7 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -1754,12 +1750,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+              <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Training Time Across 14 Algorithms, 2 Data Sets, and 4 Precoditioning Methods</a:t>
+              <a:t>Training Time</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US">
+            <a:endParaRPr lang="en-US" sz="1200">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
@@ -1779,23 +1775,20 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1200">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:sysClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" sz="1200" baseline="0"/>
               <a:t> </a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" sz="1200"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1826,7 +1819,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
@@ -1877,46 +1870,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Fit Time'!$A$2:$A$14</c:f>
+              <c:f>'Fit Time'!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>NormalPredictor</c:v>
+                  <c:v>SVD</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>BaselineOnly</c:v>
+                  <c:v>SVD_SGD_momentum</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>CoClustering</c:v>
+                  <c:v>SVDpp</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>KNNBaseline</c:v>
+                  <c:v>SVDpp_SGD_momentum</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>KNNBasic</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>KNNWithMeans</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>KNNWithZScore</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>SlopeOne</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>SVD</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>SVD_SGD_momentum</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>SVDpp</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>SVDpp_SGD_momentum</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>NMF</c:v>
                 </c:pt>
               </c:strCache>
@@ -1924,47 +1893,23 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Fit Time'!$B$2:$B$14</c:f>
+              <c:f>'Fit Time'!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.8939387003580704E-4</c:v>
+                  <c:v>2.38746802012125E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.5377693176269499E-4</c:v>
+                  <c:v>0.198391755421956</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.47589842478434E-2</c:v>
+                  <c:v>0.36052838961283301</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8760363260904901E-3</c:v>
+                  <c:v>6.9596989949544197</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0527839660644499E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.01665878295898E-4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.11134847005208E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.9502334594726497E-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.38746802012125E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.198391755421956</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.36052838961283301</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.9596989949544197</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>2.9194752375284801E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -2004,46 +1949,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Fit Time'!$A$2:$A$14</c:f>
+              <c:f>'Fit Time'!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>NormalPredictor</c:v>
+                  <c:v>SVD</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>BaselineOnly</c:v>
+                  <c:v>SVD_SGD_momentum</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>CoClustering</c:v>
+                  <c:v>SVDpp</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>KNNBaseline</c:v>
+                  <c:v>SVDpp_SGD_momentum</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>KNNBasic</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>KNNWithMeans</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>KNNWithZScore</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>SlopeOne</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>SVD</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>SVD_SGD_momentum</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>SVDpp</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>SVDpp_SGD_momentum</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>NMF</c:v>
                 </c:pt>
               </c:strCache>
@@ -2051,47 +1972,23 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Fit Time'!$C$2:$C$14</c:f>
+              <c:f>'Fit Time'!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.8939387003580704E-4</c:v>
+                  <c:v>2.38746802012125E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.5377693176269499E-4</c:v>
+                  <c:v>0.198391755421956</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.47589842478434E-2</c:v>
+                  <c:v>0.36052838961283301</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8760363260904901E-3</c:v>
+                  <c:v>6.9596989949544197</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0527839660644499E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.01665878295898E-4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.11134847005208E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.9502334594726497E-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.38746802012125E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.198391755421956</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.36052838961283301</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.9596989949544197</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>2.9194752375284801E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -2129,46 +2026,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Fit Time'!$A$2:$A$14</c:f>
+              <c:f>'Fit Time'!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>NormalPredictor</c:v>
+                  <c:v>SVD</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>BaselineOnly</c:v>
+                  <c:v>SVD_SGD_momentum</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>CoClustering</c:v>
+                  <c:v>SVDpp</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>KNNBaseline</c:v>
+                  <c:v>SVDpp_SGD_momentum</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>KNNBasic</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>KNNWithMeans</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>KNNWithZScore</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>SlopeOne</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>SVD</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>SVD_SGD_momentum</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>SVDpp</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>SVDpp_SGD_momentum</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>NMF</c:v>
                 </c:pt>
               </c:strCache>
@@ -2176,47 +2049,23 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Fit Time'!$D$2:$D$14</c:f>
+              <c:f>'Fit Time'!$D$2:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.0844936370849601E-3</c:v>
+                  <c:v>0.13003802299499501</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1328926086425699E-3</c:v>
+                  <c:v>0.84951790173848396</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.8473666508992501E-2</c:v>
+                  <c:v>0.33197673161824498</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.36064688364664E-2</c:v>
+                  <c:v>3.6888722578684399</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.11997127532958E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.6260941823323501E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.18106015523274E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.38531939188639E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.13003802299499501</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.84951790173848396</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.33197673161824498</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.6888722578684399</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>0.127983649571736</c:v>
                 </c:pt>
               </c:numCache>
@@ -2256,46 +2105,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Fit Time'!$A$2:$A$14</c:f>
+              <c:f>'Fit Time'!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>NormalPredictor</c:v>
+                  <c:v>SVD</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>BaselineOnly</c:v>
+                  <c:v>SVD_SGD_momentum</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>CoClustering</c:v>
+                  <c:v>SVDpp</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>KNNBaseline</c:v>
+                  <c:v>SVDpp_SGD_momentum</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>KNNBasic</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>KNNWithMeans</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>KNNWithZScore</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>SlopeOne</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>SVD</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>SVD_SGD_momentum</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>SVDpp</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>SVDpp_SGD_momentum</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>NMF</c:v>
                 </c:pt>
               </c:strCache>
@@ -2303,47 +2128,23 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Fit Time'!$F$2:$F$14</c:f>
+              <c:f>'Fit Time'!$F$2:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.9908955891927E-4</c:v>
+                  <c:v>2.1212100982665998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.2762031555175705E-4</c:v>
+                  <c:v>0.194404045740763</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.25633875528971E-2</c:v>
+                  <c:v>0.36020493507385198</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.3318341573079398E-4</c:v>
+                  <c:v>6.9142123858133901</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.14043553670247E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.87691752115885E-4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.4227650960286397E-4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.3698501586913997E-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.1212100982665998E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.194404045740763</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.36020493507385198</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.9142123858133901</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>2.8456052144368402E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -2396,7 +2197,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2446,7 +2247,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2459,7 +2260,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:rPr lang="en-US" sz="1000"/>
                   <a:t>Time (s)</a:t>
                 </a:r>
               </a:p>
@@ -2478,7 +2279,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2510,7 +2311,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2538,7 +2339,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2552,7 +2353,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2628,7 +2429,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2641,8 +2442,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800"/>
-              <a:t>Performance Across 14 Algorithms, 2 Data Sets, and 4 Precoditioning Methods</a:t>
+              <a:rPr lang="en-US" sz="1200"/>
+              <a:t>Algorithm Performance</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2660,7 +2461,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3358,7 +3159,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3410,7 +3211,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3423,7 +3224,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:rPr lang="en-US" sz="1000"/>
                   <a:t>RMSE</a:t>
                 </a:r>
               </a:p>
@@ -3442,7 +3243,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3474,7 +3275,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3517,7 +3318,942 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200"/>
+              <a:t>Algorithm Performance Beyond</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" baseline="0"/>
+              <a:t> Random Predictor</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Full, Unfiltered</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="53000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>BaselineOnly</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CoClustering</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>KNNBaseline</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>KNNBasic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>KNNWithMeans</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>KNNWithZScore</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>NMF</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SlopeOne</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SVD</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SVD_SGD_momentum</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SVDpp</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SVDpp_SGD_momentum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.37681355640741399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25575158057397396</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33149602632803499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30543849860152095</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32358274775738394</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28959819725725089</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24837826088762094</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.31355430261312889</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.37145978403311197</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.37472966352153592</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.38185404554100388</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.38151719551891394</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9303-DB4C-B58B-15C7071CC9C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Small, Unfiltered</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="76000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>BaselineOnly</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CoClustering</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>KNNBaseline</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>KNNBasic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>KNNWithMeans</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>KNNWithZScore</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>NMF</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SlopeOne</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SVD</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SVD_SGD_momentum</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SVDpp</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SVDpp_SGD_momentum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.37681355640741399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25575158057397396</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33149602632803499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30543849860152095</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32358274775738394</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28959819725725089</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24837826088762094</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.31355430261312889</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.37145978403311197</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.37472966352153592</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.38185404554100388</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.38151719551891394</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9303-DB4C-B58B-15C7071CC9C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Small, Movie Filtered</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>BaselineOnly</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CoClustering</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>KNNBaseline</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>KNNBasic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>KNNWithMeans</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>KNNWithZScore</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>NMF</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SlopeOne</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SVD</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SVD_SGD_momentum</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SVDpp</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SVDpp_SGD_momentum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.31735364559346291</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20609110138573994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3297664448224169</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31433561622893691</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30068333339256492</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28812829905224491</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16629952448805985</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.27188806084320893</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.31434015319092989</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.32001970237817989</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.32748547664320093</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.32539552670734895</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9303-DB4C-B58B-15C7071CC9C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Small, User Filtered</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:tint val="77000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>BaselineOnly</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CoClustering</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>KNNBaseline</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>KNNBasic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>KNNWithMeans</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>KNNWithZScore</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>NMF</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SlopeOne</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SVD</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SVD_SGD_momentum</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SVDpp</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SVDpp_SGD_momentum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$E$2:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.35355721954443897</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35342295876845498</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35389442880508304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35380040465267704</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35378383263570401</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.354308036373572</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35357882213903802</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35369336590878997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.35237644462928597</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.35381674890357206</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.35267944065595302</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.34842755444815399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9303-DB4C-B58B-15C7071CC9C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Small, Both Filtered</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:tint val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>BaselineOnly</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CoClustering</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>KNNBaseline</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>KNNBasic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>KNNWithMeans</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>KNNWithZScore</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>NMF</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SlopeOne</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SVD</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SVD_SGD_momentum</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SVDpp</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SVDpp_SGD_momentum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$F$2:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.3546260600890061</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28885740464723508</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34835427313899314</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2515921726034851</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33359712832300414</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.32905725699248312</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26172217945495813</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.27110647728531911</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.35288379599739106</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.35966868851086509</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.36389308151461908</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.36904435262852309</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9303-DB4C-B58B-15C7071CC9C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2115424815"/>
+        <c:axId val="2115272063"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2115424815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2115272063"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2115272063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.15000000000000002"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000"/>
+                  <a:t>RMSE Below Normal (Random)</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" baseline="0"/>
+                  <a:t> Predictor (RMSE Normal Predictor - RMSE Algorithm)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2115424815"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3578,6 +4314,12 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
   <a:schemeClr val="accent1"/>
 </cs:colorStyle>
@@ -5092,11 +5834,514 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{2F2DAA1C-21BE-1046-AAA6-968D4C4C4EEC}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="161" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="161" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5107,7 +6352,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B69F977F-6E14-3C4E-BF4B-30155EC9D4AB}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="161" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="161" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5116,6 +6361,17 @@
 
 <file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{AC378407-6BD4-A240-BAD2-9C0792C4F0EE}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{087CD873-194B-974C-9581-ECFE7ECA1F58}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="161" workbookViewId="0" zoomToFit="1"/>
@@ -5129,7 +6385,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8677019" cy="6294783"/>
+    <xdr:ext cx="8684907" cy="6294783"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5162,7 +6418,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8677019" cy="6294783"/>
+    <xdr:ext cx="8684907" cy="6294783"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5195,7 +6451,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8676718" cy="6291832"/>
+    <xdr:ext cx="8684907" cy="6294783"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5224,10 +6480,43 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8677019" cy="6294783"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF392BDF-FD24-4246-B90B-9A985DF12D2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Matt Vail" refreshedDate="43544.860379166668" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="65" xr:uid="{74679BDA-2529-D344-88E1-5479AB7C23B0}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:H66" sheet="Algorithm_Benchmark_small_unfil"/>
+    <worksheetSource ref="A1:H66" sheet="All"/>
   </cacheSource>
   <cacheFields count="8">
     <cacheField name="Algorithm" numFmtId="0">
@@ -5434,6 +6723,121 @@
         <n v="6.4358711242675703E-3"/>
         <n v="7.2004000345865802E-3"/>
       </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Matt Vail" refreshedDate="43545.445014930556" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="60" xr:uid="{4C837B42-9485-BA4F-8DC5-3471CC2A65D0}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:J61" sheet="All (2)"/>
+  </cacheSource>
+  <cacheFields count="10">
+    <cacheField name="Algorithm" numFmtId="0">
+      <sharedItems count="12">
+        <s v="BaselineOnly"/>
+        <s v="CoClustering"/>
+        <s v="KNNBaseline"/>
+        <s v="KNNBasic"/>
+        <s v="KNNWithMeans"/>
+        <s v="KNNWithZScore"/>
+        <s v="NMF"/>
+        <s v="SlopeOne"/>
+        <s v="SVD"/>
+        <s v="SVD_SGD_momentum"/>
+        <s v="SVDpp"/>
+        <s v="SVDpp_SGD_momentum"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Dataset" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Big"/>
+        <s v="Small"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Filter" numFmtId="0">
+      <sharedItems count="4">
+        <s v="0-None"/>
+        <s v="1-Movie"/>
+        <s v="2-User"/>
+        <s v="3-Both"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Test Below Random" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.16629952448805985" maxValue="0.38185404554100388" count="48">
+        <n v="0.37681355640741399"/>
+        <n v="0.31735364559346291"/>
+        <n v="0.35355721954443897"/>
+        <n v="0.3546260600890061"/>
+        <n v="0.25575158057397396"/>
+        <n v="0.20609110138573994"/>
+        <n v="0.35342295876845498"/>
+        <n v="0.28885740464723508"/>
+        <n v="0.33149602632803499"/>
+        <n v="0.3297664448224169"/>
+        <n v="0.35389442880508304"/>
+        <n v="0.34835427313899314"/>
+        <n v="0.30543849860152095"/>
+        <n v="0.31433561622893691"/>
+        <n v="0.35380040465267704"/>
+        <n v="0.2515921726034851"/>
+        <n v="0.32358274775738394"/>
+        <n v="0.30068333339256492"/>
+        <n v="0.35378383263570401"/>
+        <n v="0.33359712832300414"/>
+        <n v="0.28959819725725089"/>
+        <n v="0.28812829905224491"/>
+        <n v="0.354308036373572"/>
+        <n v="0.32905725699248312"/>
+        <n v="0.24837826088762094"/>
+        <n v="0.16629952448805985"/>
+        <n v="0.35357882213903802"/>
+        <n v="0.26172217945495813"/>
+        <n v="0.31355430261312889"/>
+        <n v="0.27188806084320893"/>
+        <n v="0.35369336590878997"/>
+        <n v="0.27110647728531911"/>
+        <n v="0.37145978403311197"/>
+        <n v="0.31434015319092989"/>
+        <n v="0.35237644462928597"/>
+        <n v="0.35288379599739106"/>
+        <n v="0.37472966352153592"/>
+        <n v="0.32001970237817989"/>
+        <n v="0.35381674890357206"/>
+        <n v="0.35966868851086509"/>
+        <n v="0.38185404554100388"/>
+        <n v="0.32748547664320093"/>
+        <n v="0.35267944065595302"/>
+        <n v="0.36389308151461908"/>
+        <n v="0.38151719551891394"/>
+        <n v="0.32539552670734895"/>
+        <n v="0.34842755444815399"/>
+        <n v="0.36904435262852309"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="test_rmse" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.76780378727380605" maxValue="1.0120260436781801"/>
+    </cacheField>
+    <cacheField name="Normal RMSE" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.1410636583696101" maxValue="1.2870305595211"/>
+    </cacheField>
+    <cacheField name="test_mae" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.61056910953949495" maxValue="0.79621230817202204"/>
+    </cacheField>
+    <cacheField name="test_fcp" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.64794687574001197"/>
+    </cacheField>
+    <cacheField name="fit_time" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.14043553670247E-4" maxValue="850.83027704556696"/>
+    </cacheField>
+    <cacheField name="test_time" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.02098782857259E-3" maxValue="0.183802048365275"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -6099,8 +7503,733 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="60">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.77284427640739595"/>
+    <n v="1.1496578328148099"/>
+    <n v="0.618306191941564"/>
+    <n v="0.61430361363255703"/>
+    <n v="8.5377693176269499E-4"/>
+    <n v="2.0461082458495998E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.77284427640739595"/>
+    <n v="1.1496578328148099"/>
+    <n v="0.618306191941564"/>
+    <n v="0.61430361363255703"/>
+    <n v="8.5377693176269499E-4"/>
+    <n v="2.0461082458495998E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.86097192257277699"/>
+    <n v="1.1783255681662399"/>
+    <n v="0.66064188775230104"/>
+    <n v="0.53314005708871504"/>
+    <n v="2.1328926086425699E-3"/>
+    <n v="4.4107437133789002E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.93347333997666104"/>
+    <n v="1.2870305595211"/>
+    <n v="0.783695109939337"/>
+    <n v="0"/>
+    <n v="5.3791205088297503E-3"/>
+    <n v="6.89562161763509E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="0.786437598280604"/>
+    <n v="1.1410636583696101"/>
+    <n v="0.62956110699265999"/>
+    <n v="0.62001884301852705"/>
+    <n v="5.2762031555175705E-4"/>
+    <n v="1.02098782857259E-3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="0.89390625224083597"/>
+    <n v="1.1496578328148099"/>
+    <n v="0.69187484501872698"/>
+    <n v="0.62267761212151695"/>
+    <n v="1.47589842478434E-2"/>
+    <n v="1.1320114135742101E-3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="0.89390625224083597"/>
+    <n v="1.1496578328148099"/>
+    <n v="0.69187484501872698"/>
+    <n v="0.62267761212151695"/>
+    <n v="1.47589842478434E-2"/>
+    <n v="1.1320114135742101E-3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="0.97223446678049996"/>
+    <n v="1.1783255681662399"/>
+    <n v="0.724913030196779"/>
+    <n v="0.51543041594237904"/>
+    <n v="5.8473666508992501E-2"/>
+    <n v="5.4196516672770098E-3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="0.93360760075264504"/>
+    <n v="1.2870305595211"/>
+    <n v="0.78400820106621605"/>
+    <n v="0"/>
+    <n v="0.169394016265869"/>
+    <n v="5.5177211761474601E-3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="0.85220625372237502"/>
+    <n v="1.1410636583696101"/>
+    <n v="0.66760263442963497"/>
+    <n v="0.63001210934501395"/>
+    <n v="1.25633875528971E-2"/>
+    <n v="1.30430857340494E-3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="8"/>
+    <n v="0.81816180648677495"/>
+    <n v="1.1496578328148099"/>
+    <n v="0.648077448092789"/>
+    <n v="0.60899327346779797"/>
+    <n v="1.8760363260904901E-3"/>
+    <n v="4.9735705057779899E-3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="8"/>
+    <n v="0.81816180648677495"/>
+    <n v="1.1496578328148099"/>
+    <n v="0.648077448092789"/>
+    <n v="0.60899327346779797"/>
+    <n v="1.8760363260904901E-3"/>
+    <n v="4.9735705057779899E-3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="0.848559123343823"/>
+    <n v="1.1783255681662399"/>
+    <n v="0.64348036339739101"/>
+    <n v="0.54182052045234896"/>
+    <n v="1.36064688364664E-2"/>
+    <n v="0.183802048365275"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="10"/>
+    <n v="0.93313613071601698"/>
+    <n v="1.2870305595211"/>
+    <n v="0.78385418704097398"/>
+    <n v="0"/>
+    <n v="5.1922798156738203E-3"/>
+    <n v="7.8532695770263602E-3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="0.79270938523061696"/>
+    <n v="1.1410636583696101"/>
+    <n v="0.61155013730265195"/>
+    <n v="0.63585281619590694"/>
+    <n v="5.3318341573079398E-4"/>
+    <n v="3.5716692606608002E-3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="0.84421933421328899"/>
+    <n v="1.1496578328148099"/>
+    <n v="0.66759787614167498"/>
+    <n v="0.64794687574001197"/>
+    <n v="2.0527839660644499E-4"/>
+    <n v="4.2185783386230399E-3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="0.84421933421328899"/>
+    <n v="1.1496578328148099"/>
+    <n v="0.66759787614167498"/>
+    <n v="0.64794687574001197"/>
+    <n v="2.0527839660644499E-4"/>
+    <n v="4.2185783386230399E-3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="0.86398995193730299"/>
+    <n v="1.1783255681662399"/>
+    <n v="0.65224854393360798"/>
+    <n v="0.54587778367825601"/>
+    <n v="1.11997127532958E-2"/>
+    <n v="0.15151596069335899"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="14"/>
+    <n v="0.93323015486842298"/>
+    <n v="1.2870305595211"/>
+    <n v="0.78374252993561899"/>
+    <n v="0"/>
+    <n v="2.5566418965657501E-4"/>
+    <n v="6.4976215362548802E-3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="15"/>
+    <n v="0.889471485766125"/>
+    <n v="1.1410636583696101"/>
+    <n v="0.71328214411967095"/>
+    <n v="0.61045558054290106"/>
+    <n v="1.14043553670247E-4"/>
+    <n v="2.40461031595865E-3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="16"/>
+    <n v="0.826075085057426"/>
+    <n v="1.1496578328148099"/>
+    <n v="0.65825596340236403"/>
+    <n v="0.60743752480802204"/>
+    <n v="7.01665878295898E-4"/>
+    <n v="8.5000197092691999E-3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="16"/>
+    <n v="0.826075085057426"/>
+    <n v="1.1496578328148099"/>
+    <n v="0.65825596340236403"/>
+    <n v="0.60743752480802204"/>
+    <n v="7.01665878295898E-4"/>
+    <n v="8.5000197092691999E-3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="17"/>
+    <n v="0.87764223477367498"/>
+    <n v="1.1783255681662399"/>
+    <n v="0.65766011306858996"/>
+    <n v="0.52977816973069503"/>
+    <n v="1.6260941823323501E-2"/>
+    <n v="0.15792202949523901"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="18"/>
+    <n v="0.93324672688539601"/>
+    <n v="1.2870305595211"/>
+    <n v="0.78368080306725896"/>
+    <n v="0"/>
+    <n v="4.28438186645507E-4"/>
+    <n v="1.8855969111124599E-2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="19"/>
+    <n v="0.80746653004660596"/>
+    <n v="1.1410636583696101"/>
+    <n v="0.63706081695594996"/>
+    <n v="0.61607869430579598"/>
+    <n v="2.87691752115885E-4"/>
+    <n v="2.77932484944661E-3"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="20"/>
+    <n v="0.86005963555755904"/>
+    <n v="1.1496578328148099"/>
+    <n v="0.67780107377163001"/>
+    <n v="0.59743445010589902"/>
+    <n v="1.11134847005208E-3"/>
+    <n v="5.4519971211751299E-3"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="20"/>
+    <n v="0.86005963555755904"/>
+    <n v="1.1496578328148099"/>
+    <n v="0.67780107377163001"/>
+    <n v="0.59743445010589902"/>
+    <n v="1.11134847005208E-3"/>
+    <n v="5.4519971211751299E-3"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="21"/>
+    <n v="0.89019726911399499"/>
+    <n v="1.1783255681662399"/>
+    <n v="0.66242419747576997"/>
+    <n v="0.54406687562640199"/>
+    <n v="3.18106015523274E-2"/>
+    <n v="0.169681469599405"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="22"/>
+    <n v="0.93272252314752802"/>
+    <n v="1.2870305595211"/>
+    <n v="0.78385622541643196"/>
+    <n v="0"/>
+    <n v="8.19921493530273E-4"/>
+    <n v="6.8633556365966797E-3"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="23"/>
+    <n v="0.81200640137712699"/>
+    <n v="1.1410636583696101"/>
+    <n v="0.62926613582509205"/>
+    <n v="0.63677098826116396"/>
+    <n v="7.4227650960286397E-4"/>
+    <n v="3.20672988891601E-3"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="24"/>
+    <n v="0.90127957192718899"/>
+    <n v="1.1496578328148099"/>
+    <n v="0.70485834053594398"/>
+    <n v="0.62837838496937104"/>
+    <n v="2.9194752375284801E-2"/>
+    <n v="1.1599858601888001E-3"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="24"/>
+    <n v="0.90127957192718899"/>
+    <n v="1.1496578328148099"/>
+    <n v="0.70485834053594398"/>
+    <n v="0.62837838496937104"/>
+    <n v="2.9194752375284801E-2"/>
+    <n v="1.1599858601888001E-3"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="25"/>
+    <n v="1.0120260436781801"/>
+    <n v="1.1783255681662399"/>
+    <n v="0.79621230817202204"/>
+    <n v="0.52711452402471004"/>
+    <n v="0.127983649571736"/>
+    <n v="5.2444140116373701E-3"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="26"/>
+    <n v="0.933451737382062"/>
+    <n v="1.2870305595211"/>
+    <n v="0.784051930528885"/>
+    <n v="0"/>
+    <n v="0.21422497431437099"/>
+    <n v="6.0286521911620998E-3"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="27"/>
+    <n v="0.87934147891465197"/>
+    <n v="1.1410636583696101"/>
+    <n v="0.70275799405065098"/>
+    <n v="0.64111269151235994"/>
+    <n v="2.8456052144368402E-2"/>
+    <n v="1.09728177388509E-3"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="28"/>
+    <n v="0.83610353020168104"/>
+    <n v="1.1496578328148099"/>
+    <n v="0.66028616833885301"/>
+    <n v="0.60236960759380598"/>
+    <n v="8.9502334594726497E-4"/>
+    <n v="9.6416473388671806E-3"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="28"/>
+    <n v="0.83610353020168104"/>
+    <n v="1.1496578328148099"/>
+    <n v="0.66028616833885301"/>
+    <n v="0.60236960759380598"/>
+    <n v="8.9502334594726497E-4"/>
+    <n v="9.6416473388671806E-3"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="29"/>
+    <n v="0.90643750732303097"/>
+    <n v="1.1783255681662399"/>
+    <n v="0.66262166251889898"/>
+    <n v="0.559272401344037"/>
+    <n v="5.38531939188639E-3"/>
+    <n v="7.7314376831054601E-3"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="30"/>
+    <n v="0.93333719361231005"/>
+    <n v="1.2870305595211"/>
+    <n v="0.78396684867772504"/>
+    <n v="0"/>
+    <n v="0.17952680587768499"/>
+    <n v="6.0186386108398403E-3"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="31"/>
+    <n v="0.86995718108429099"/>
+    <n v="1.1410636583696101"/>
+    <n v="0.67172856243433998"/>
+    <n v="0.59338564192112597"/>
+    <n v="9.3698501586913997E-4"/>
+    <n v="9.5361868540445906E-3"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="32"/>
+    <n v="0.77819804878169796"/>
+    <n v="1.1496578328148099"/>
+    <n v="0.61968716046585903"/>
+    <n v="0.59071857681322903"/>
+    <n v="2.38746802012125E-2"/>
+    <n v="1.38592720031738E-2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="32"/>
+    <n v="0.77819804878169796"/>
+    <n v="1.1496578328148099"/>
+    <n v="0.61968716046585903"/>
+    <n v="0.59071857681322903"/>
+    <n v="2.38746802012125E-2"/>
+    <n v="1.38592720031738E-2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="33"/>
+    <n v="0.86398541497531001"/>
+    <n v="1.1783255681662399"/>
+    <n v="0.65991431021719404"/>
+    <n v="0.52707895785214098"/>
+    <n v="0.13003802299499501"/>
+    <n v="7.2426001230875602E-3"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="34"/>
+    <n v="0.93465411489181405"/>
+    <n v="1.2870305595211"/>
+    <n v="0.78022834103787497"/>
+    <n v="0"/>
+    <n v="9.8759015401204395E-2"/>
+    <n v="5.5259863535563102E-3"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="35"/>
+    <n v="0.78817986237221904"/>
+    <n v="1.1410636583696101"/>
+    <n v="0.62760133805284202"/>
+    <n v="0.59290596907701798"/>
+    <n v="2.1212100982665998E-2"/>
+    <n v="1.39093399047851E-3"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="36"/>
+    <n v="0.77492816929327402"/>
+    <n v="1.1496578328148099"/>
+    <n v="0.62214635262635298"/>
+    <n v="0.577951893611515"/>
+    <n v="0.198391755421956"/>
+    <n v="1.45570437113444E-3"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="36"/>
+    <n v="0.77492816929327402"/>
+    <n v="1.1496578328148099"/>
+    <n v="0.62214635262635298"/>
+    <n v="0.577951893611515"/>
+    <n v="0.198391755421956"/>
+    <n v="1.45570437113444E-3"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="37"/>
+    <n v="0.85830586578806001"/>
+    <n v="1.1783255681662399"/>
+    <n v="0.65817448165043502"/>
+    <n v="0.53616946798907394"/>
+    <n v="0.84951790173848396"/>
+    <n v="6.3096682230631496E-3"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="38"/>
+    <n v="0.93321381061752795"/>
+    <n v="1.2870305595211"/>
+    <n v="0.78263793005846105"/>
+    <n v="0"/>
+    <n v="0.85187355677286702"/>
+    <n v="5.5192311604817697E-3"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="39"/>
+    <n v="0.78139496985874501"/>
+    <n v="1.1410636583696101"/>
+    <n v="0.62074123158532901"/>
+    <n v="0.58685667086126203"/>
+    <n v="0.194404045740763"/>
+    <n v="1.3913313547770101E-3"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="40"/>
+    <n v="0.76780378727380605"/>
+    <n v="1.1496578328148099"/>
+    <n v="0.61441615300671304"/>
+    <n v="0.60198892646741797"/>
+    <n v="0.36052838961283301"/>
+    <n v="1.28367741902669E-2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="40"/>
+    <n v="0.76780378727380605"/>
+    <n v="1.1496578328148099"/>
+    <n v="0.61441615300671304"/>
+    <n v="0.60198892646741797"/>
+    <n v="0.36052838961283301"/>
+    <n v="1.28367741902669E-2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="41"/>
+    <n v="0.85084009152303897"/>
+    <n v="1.1783255681662399"/>
+    <n v="0.65303697263852001"/>
+    <n v="0.54063602221794205"/>
+    <n v="0.33197673161824498"/>
+    <n v="2.9531637827555302E-2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="42"/>
+    <n v="0.93435111886514699"/>
+    <n v="1.2870305595211"/>
+    <n v="0.78601243952539501"/>
+    <n v="0"/>
+    <n v="41.823434193929003"/>
+    <n v="5.9069792429606097E-3"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="43"/>
+    <n v="0.77717057685499102"/>
+    <n v="1.1410636583696101"/>
+    <n v="0.61972520489091398"/>
+    <n v="0.61345665430377705"/>
+    <n v="0.36020493507385198"/>
+    <n v="1.2540976206461499E-2"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="44"/>
+    <n v="0.76814063729589599"/>
+    <n v="1.1496578328148099"/>
+    <n v="0.61056910953949495"/>
+    <n v="0.61990182591719001"/>
+    <n v="6.9596989949544197"/>
+    <n v="1.2761036554972301E-2"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="44"/>
+    <n v="0.76814063729589599"/>
+    <n v="1.1496578328148099"/>
+    <n v="0.61056910953949495"/>
+    <n v="0.61990182591719001"/>
+    <n v="6.9596989949544197"/>
+    <n v="1.2761036554972301E-2"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="45"/>
+    <n v="0.85293004145889095"/>
+    <n v="1.1783255681662399"/>
+    <n v="0.65207474027994194"/>
+    <n v="0.545343381533685"/>
+    <n v="3.6888722578684399"/>
+    <n v="1.5613794326782201E-2"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="46"/>
+    <n v="0.93860300507294603"/>
+    <n v="1.2870305595211"/>
+    <n v="0.78848796453984604"/>
+    <n v="0"/>
+    <n v="850.83027704556696"/>
+    <n v="6.4358711242675703E-3"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="47"/>
+    <n v="0.77201930574108701"/>
+    <n v="1.1410636583696101"/>
+    <n v="0.61525988166252799"/>
+    <n v="0.620263081612069"/>
+    <n v="6.9142123858133901"/>
+    <n v="1.28409067789713E-2"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A555055A-7ED3-C84F-95C8-B9038F5923FC}" name="PivotTable5" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="\">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A555055A-7ED3-C84F-95C8-B9038F5923FC}" name="PivotTable5" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="\">
   <location ref="A3:I19" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -6392,6 +8521,194 @@
   </colItems>
   <dataFields count="1">
     <dataField name="Average of test_time" fld="7" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{38D5B8D2-E2FE-0B49-9334-7500EAC8D446}" name="PivotTable1" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:I18" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="49">
+        <item x="25"/>
+        <item x="5"/>
+        <item x="24"/>
+        <item x="15"/>
+        <item x="4"/>
+        <item x="27"/>
+        <item x="31"/>
+        <item x="29"/>
+        <item x="21"/>
+        <item x="7"/>
+        <item x="20"/>
+        <item x="17"/>
+        <item x="12"/>
+        <item x="28"/>
+        <item x="13"/>
+        <item x="33"/>
+        <item x="1"/>
+        <item x="37"/>
+        <item x="16"/>
+        <item x="45"/>
+        <item x="41"/>
+        <item x="23"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="19"/>
+        <item x="11"/>
+        <item x="46"/>
+        <item x="34"/>
+        <item x="42"/>
+        <item x="35"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="18"/>
+        <item x="14"/>
+        <item x="38"/>
+        <item x="10"/>
+        <item x="22"/>
+        <item x="3"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="47"/>
+        <item x="32"/>
+        <item x="36"/>
+        <item x="0"/>
+        <item x="44"/>
+        <item x="40"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="2"/>
+  </colFields>
+  <colItems count="8">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i t="default">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i t="default">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Test Below Random" fld="3" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -7483,10 +9800,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A25CC6-BA96-6245-B305-409C6259CB74}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7520,279 +9837,111 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2">
-        <v>4.8939387003580704E-4</v>
+        <v>2.38746802012125E-2</v>
       </c>
       <c r="C2" s="2">
-        <v>4.8939387003580704E-4</v>
+        <v>2.38746802012125E-2</v>
       </c>
       <c r="D2" s="2">
-        <v>2.0844936370849601E-3</v>
+        <v>0.13003802299499501</v>
       </c>
       <c r="E2" s="2">
-        <v>2.0666917165120401E-3</v>
+        <v>9.8759015401204395E-2</v>
       </c>
       <c r="F2" s="2">
-        <v>4.9908955891927E-4</v>
+        <v>2.1212100982665998E-2</v>
       </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2">
-        <v>8.5377693176269499E-4</v>
+        <v>0.198391755421956</v>
       </c>
       <c r="C3" s="2">
-        <v>8.5377693176269499E-4</v>
+        <v>0.198391755421956</v>
       </c>
       <c r="D3" s="2">
-        <v>2.1328926086425699E-3</v>
+        <v>0.84951790173848396</v>
       </c>
       <c r="E3" s="2">
-        <v>5.3791205088297503E-3</v>
+        <v>0.85187355677286702</v>
       </c>
       <c r="F3" s="2">
-        <v>5.2762031555175705E-4</v>
+        <v>0.194404045740763</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>1.47589842478434E-2</v>
+        <v>0.36052838961283301</v>
       </c>
       <c r="C4" s="2">
-        <v>1.47589842478434E-2</v>
+        <v>0.36052838961283301</v>
       </c>
       <c r="D4" s="2">
-        <v>5.8473666508992501E-2</v>
+        <v>0.33197673161824498</v>
       </c>
       <c r="E4" s="2">
-        <v>0.169394016265869</v>
+        <v>41.823434193929003</v>
       </c>
       <c r="F4" s="2">
-        <v>1.25633875528971E-2</v>
+        <v>0.36020493507385198</v>
       </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
-        <v>1.8760363260904901E-3</v>
+        <v>6.9596989949544197</v>
       </c>
       <c r="C5" s="2">
-        <v>1.8760363260904901E-3</v>
+        <v>6.9596989949544197</v>
       </c>
       <c r="D5" s="2">
-        <v>1.36064688364664E-2</v>
+        <v>3.6888722578684399</v>
       </c>
       <c r="E5" s="2">
-        <v>5.1922798156738203E-3</v>
+        <v>850.83027704556696</v>
       </c>
       <c r="F5" s="2">
-        <v>5.3318341573079398E-4</v>
+        <v>6.9142123858133901</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2">
-        <v>2.0527839660644499E-4</v>
+        <v>2.9194752375284801E-2</v>
       </c>
       <c r="C6" s="2">
-        <v>2.0527839660644499E-4</v>
+        <v>2.9194752375284801E-2</v>
       </c>
       <c r="D6" s="2">
-        <v>1.11997127532958E-2</v>
+        <v>0.127983649571736</v>
       </c>
       <c r="E6" s="2">
-        <v>2.5566418965657501E-4</v>
+        <v>0.21422497431437099</v>
       </c>
       <c r="F6" s="2">
-        <v>1.14043553670247E-4</v>
+        <v>2.8456052144368402E-2</v>
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2">
-        <v>7.01665878295898E-4</v>
-      </c>
-      <c r="C7" s="2">
-        <v>7.01665878295898E-4</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1.6260941823323501E-2</v>
-      </c>
-      <c r="E7" s="2">
-        <v>4.28438186645507E-4</v>
-      </c>
-      <c r="F7" s="2">
-        <v>2.87691752115885E-4</v>
-      </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1.11134847005208E-3</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1.11134847005208E-3</v>
-      </c>
-      <c r="D8" s="2">
-        <v>3.18106015523274E-2</v>
-      </c>
-      <c r="E8" s="2">
-        <v>8.19921493530273E-4</v>
-      </c>
-      <c r="F8" s="2">
-        <v>7.4227650960286397E-4</v>
-      </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2">
-        <v>8.9502334594726497E-4</v>
-      </c>
-      <c r="C9" s="2">
-        <v>8.9502334594726497E-4</v>
-      </c>
-      <c r="D9" s="2">
-        <v>5.38531939188639E-3</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.17952680587768499</v>
-      </c>
-      <c r="F9" s="2">
-        <v>9.3698501586913997E-4</v>
-      </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2">
-        <v>2.38746802012125E-2</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2.38746802012125E-2</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.13003802299499501</v>
-      </c>
-      <c r="E10" s="2">
-        <v>9.8759015401204395E-2</v>
-      </c>
-      <c r="F10" s="2">
-        <v>2.1212100982665998E-2</v>
-      </c>
-      <c r="H10" s="2"/>
-    </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.198391755421956</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.198391755421956</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.84951790173848396</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.85187355677286702</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.194404045740763</v>
-      </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.36052838961283301</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.36052838961283301</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.33197673161824498</v>
-      </c>
-      <c r="E12" s="2">
-        <v>41.823434193929003</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.36020493507385198</v>
-      </c>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="2">
-        <v>6.9596989949544197</v>
-      </c>
-      <c r="C13" s="2">
-        <v>6.9596989949544197</v>
-      </c>
-      <c r="D13" s="2">
-        <v>3.6888722578684399</v>
-      </c>
-      <c r="E13" s="2">
-        <v>850.83027704556696</v>
-      </c>
-      <c r="F13" s="2">
-        <v>6.9142123858133901</v>
-      </c>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2.9194752375284801E-2</v>
-      </c>
-      <c r="C14" s="2">
-        <v>2.9194752375284801E-2</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.127983649571736</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.21422497431437099</v>
-      </c>
-      <c r="F14" s="2">
-        <v>2.8456052144368402E-2</v>
-      </c>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E19" s="2"/>
+      <c r="E11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8107,7 +10256,7 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+      <selection activeCell="K2" sqref="K2:R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9838,4 +11987,2769 @@
   <autoFilter ref="A1:H66" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04E69C0-FD75-904E-B8A8-3A15646F92B2}">
+  <dimension ref="A3:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.37681355640741399</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.37681355640741399</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.37681355640741399</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.31735364559346291</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.35355721954443897</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.3546260600890061</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.35058762040858049</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.35583280760834718</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.25575158057397396</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.25575158057397396</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.25575158057397396</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.20609110138573994</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.35342295876845498</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.28885740464723508</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.27603076134385096</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.27197492518987554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.33149602632803499</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.33149602632803499</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.33149602632803499</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.3297664448224169</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.35389442880508304</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.34835427313899314</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.34087779327363199</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.33900143988451265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.30543849860152095</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.30543849860152095</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.30543849860152095</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.31433561622893691</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.35380040465267704</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.2515921726034851</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.306291673021655</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.3061210381376282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.32358274775738394</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.32358274775738394</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.32358274775738394</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.30068333339256492</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.35378383263570401</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.33359712832300414</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.32791176052716425</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.32704595797320823</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.28959819725725089</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.28959819725725089</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.28959819725725089</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.28812829905224491</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.354308036373572</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.32905725699248312</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.31527294741888773</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.31013799738656039</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.24837826088762094</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.24837826088762094</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.24837826088762094</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.16629952448805985</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.35357882213903802</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.26172217945495813</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.2574946967424192</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.25567140957145956</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.31355430261312889</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.31355430261312889</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.31355430261312889</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.27188806084320893</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.35369336590878997</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.27110647728531911</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.30256055166261175</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.30475930185271516</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.37145978403311197</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.37145978403311197</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.37145978403311197</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.31434015319092989</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.35237644462928597</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.35288379599739106</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.34776504446267975</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.35250399237676611</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.37472966352153592</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.37472966352153592</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.37472966352153592</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.32001970237817989</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.35381674890357206</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.35966868851086509</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.35205870082853824</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.35659289336713773</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.38185404554100388</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.38185404554100388</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.38185404554100388</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.32748547664320093</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.35267944065595302</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.36389308151461908</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.35647801108869426</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.36155321797915618</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.38151719551891394</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.38151719551891394</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.38151719551891394</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.32539552670734895</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.34842755444815399</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.36904435262852309</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.35609615732573496</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.36118036496437078</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.32951448825340784</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.32951448825340784</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.32951448825340784</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.2901489070605246</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.35311160478872688</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.32370023926549024</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.32411880984203739</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.32519794552431153</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D09FE2-31B3-BD46-890F-A4A71FA34C88}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.37681355640741399</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.37681355640741399</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.31735364559346291</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.35355721954443897</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.3546260600890061</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.25575158057397396</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.25575158057397396</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.20609110138573994</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.35342295876845498</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.28885740464723508</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.33149602632803499</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.33149602632803499</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.3297664448224169</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.35389442880508304</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.34835427313899314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.30543849860152095</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.30543849860152095</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.31433561622893691</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.35380040465267704</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.2515921726034851</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.32358274775738394</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.32358274775738394</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.30068333339256492</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.35378383263570401</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.33359712832300414</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.28959819725725089</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.28959819725725089</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.28812829905224491</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.354308036373572</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.32905725699248312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.24837826088762094</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.24837826088762094</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.16629952448805985</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.35357882213903802</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.26172217945495813</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.31355430261312889</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.31355430261312889</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.27188806084320893</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.35369336590878997</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.27110647728531911</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.37145978403311197</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.37145978403311197</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.31434015319092989</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.35237644462928597</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.35288379599739106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.37472966352153592</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.37472966352153592</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.32001970237817989</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.35381674890357206</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.35966868851086509</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.38185404554100388</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.38185404554100388</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.32748547664320093</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.35267944065595302</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.36389308151461908</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.38151719551891394</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.38151719551891394</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.32539552670734895</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.34842755444815399</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.36904435262852309</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10EED61F-198E-334F-844D-7EE5F2E5D6AF}">
+  <dimension ref="A1:O61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" customWidth="1"/>
+    <col min="7" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D33" si="0">F2-E2</f>
+        <v>0.37681355640741399</v>
+      </c>
+      <c r="E2">
+        <v>0.77284427640739595</v>
+      </c>
+      <c r="F2">
+        <v>1.1496578328148099</v>
+      </c>
+      <c r="G2">
+        <v>0.618306191941564</v>
+      </c>
+      <c r="H2">
+        <v>0.61430361363255703</v>
+      </c>
+      <c r="I2">
+        <v>8.5377693176269499E-4</v>
+      </c>
+      <c r="J2">
+        <v>2.0461082458495998E-3</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>0.37681355640741399</v>
+      </c>
+      <c r="E3">
+        <v>0.77284427640739595</v>
+      </c>
+      <c r="F3">
+        <v>1.1496578328148099</v>
+      </c>
+      <c r="G3">
+        <v>0.618306191941564</v>
+      </c>
+      <c r="H3">
+        <v>0.61430361363255703</v>
+      </c>
+      <c r="I3">
+        <v>8.5377693176269499E-4</v>
+      </c>
+      <c r="J3">
+        <v>2.0461082458495998E-3</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.31735364559346291</v>
+      </c>
+      <c r="E4">
+        <v>0.86097192257277699</v>
+      </c>
+      <c r="F4">
+        <v>1.1783255681662399</v>
+      </c>
+      <c r="G4">
+        <v>0.66064188775230104</v>
+      </c>
+      <c r="H4">
+        <v>0.53314005708871504</v>
+      </c>
+      <c r="I4">
+        <v>2.1328926086425699E-3</v>
+      </c>
+      <c r="J4">
+        <v>4.4107437133789002E-3</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.35355721954443897</v>
+      </c>
+      <c r="E5">
+        <v>0.93347333997666104</v>
+      </c>
+      <c r="F5">
+        <v>1.2870305595211</v>
+      </c>
+      <c r="G5">
+        <v>0.783695109939337</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>5.3791205088297503E-3</v>
+      </c>
+      <c r="J5">
+        <v>6.89562161763509E-3</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.3546260600890061</v>
+      </c>
+      <c r="E6">
+        <v>0.786437598280604</v>
+      </c>
+      <c r="F6">
+        <v>1.1410636583696101</v>
+      </c>
+      <c r="G6">
+        <v>0.62956110699265999</v>
+      </c>
+      <c r="H6">
+        <v>0.62001884301852705</v>
+      </c>
+      <c r="I6">
+        <v>5.2762031555175705E-4</v>
+      </c>
+      <c r="J6">
+        <v>1.02098782857259E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.25575158057397396</v>
+      </c>
+      <c r="E7">
+        <v>0.89390625224083597</v>
+      </c>
+      <c r="F7">
+        <v>1.1496578328148099</v>
+      </c>
+      <c r="G7">
+        <v>0.69187484501872698</v>
+      </c>
+      <c r="H7">
+        <v>0.62267761212151695</v>
+      </c>
+      <c r="I7">
+        <v>1.47589842478434E-2</v>
+      </c>
+      <c r="J7">
+        <v>1.1320114135742101E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.25575158057397396</v>
+      </c>
+      <c r="E8">
+        <v>0.89390625224083597</v>
+      </c>
+      <c r="F8">
+        <v>1.1496578328148099</v>
+      </c>
+      <c r="G8">
+        <v>0.69187484501872698</v>
+      </c>
+      <c r="H8">
+        <v>0.62267761212151695</v>
+      </c>
+      <c r="I8">
+        <v>1.47589842478434E-2</v>
+      </c>
+      <c r="J8">
+        <v>1.1320114135742101E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.20609110138573994</v>
+      </c>
+      <c r="E9">
+        <v>0.97223446678049996</v>
+      </c>
+      <c r="F9">
+        <v>1.1783255681662399</v>
+      </c>
+      <c r="G9">
+        <v>0.724913030196779</v>
+      </c>
+      <c r="H9">
+        <v>0.51543041594237904</v>
+      </c>
+      <c r="I9">
+        <v>5.8473666508992501E-2</v>
+      </c>
+      <c r="J9">
+        <v>5.4196516672770098E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.35342295876845498</v>
+      </c>
+      <c r="E10">
+        <v>0.93360760075264504</v>
+      </c>
+      <c r="F10">
+        <v>1.2870305595211</v>
+      </c>
+      <c r="G10">
+        <v>0.78400820106621605</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0.169394016265869</v>
+      </c>
+      <c r="J10">
+        <v>5.5177211761474601E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.28885740464723508</v>
+      </c>
+      <c r="E11">
+        <v>0.85220625372237502</v>
+      </c>
+      <c r="F11">
+        <v>1.1410636583696101</v>
+      </c>
+      <c r="G11">
+        <v>0.66760263442963497</v>
+      </c>
+      <c r="H11">
+        <v>0.63001210934501395</v>
+      </c>
+      <c r="I11">
+        <v>1.25633875528971E-2</v>
+      </c>
+      <c r="J11">
+        <v>1.30430857340494E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.33149602632803499</v>
+      </c>
+      <c r="E12">
+        <v>0.81816180648677495</v>
+      </c>
+      <c r="F12">
+        <v>1.1496578328148099</v>
+      </c>
+      <c r="G12">
+        <v>0.648077448092789</v>
+      </c>
+      <c r="H12">
+        <v>0.60899327346779797</v>
+      </c>
+      <c r="I12">
+        <v>1.8760363260904901E-3</v>
+      </c>
+      <c r="J12">
+        <v>4.9735705057779899E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.33149602632803499</v>
+      </c>
+      <c r="E13">
+        <v>0.81816180648677495</v>
+      </c>
+      <c r="F13">
+        <v>1.1496578328148099</v>
+      </c>
+      <c r="G13">
+        <v>0.648077448092789</v>
+      </c>
+      <c r="H13">
+        <v>0.60899327346779797</v>
+      </c>
+      <c r="I13">
+        <v>1.8760363260904901E-3</v>
+      </c>
+      <c r="J13">
+        <v>4.9735705057779899E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.3297664448224169</v>
+      </c>
+      <c r="E14">
+        <v>0.848559123343823</v>
+      </c>
+      <c r="F14">
+        <v>1.1783255681662399</v>
+      </c>
+      <c r="G14">
+        <v>0.64348036339739101</v>
+      </c>
+      <c r="H14">
+        <v>0.54182052045234896</v>
+      </c>
+      <c r="I14">
+        <v>1.36064688364664E-2</v>
+      </c>
+      <c r="J14">
+        <v>0.183802048365275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0.35389442880508304</v>
+      </c>
+      <c r="E15">
+        <v>0.93313613071601698</v>
+      </c>
+      <c r="F15">
+        <v>1.2870305595211</v>
+      </c>
+      <c r="G15">
+        <v>0.78385418704097398</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>5.1922798156738203E-3</v>
+      </c>
+      <c r="J15">
+        <v>7.8532695770263602E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.34835427313899314</v>
+      </c>
+      <c r="E16">
+        <v>0.79270938523061696</v>
+      </c>
+      <c r="F16">
+        <v>1.1410636583696101</v>
+      </c>
+      <c r="G16">
+        <v>0.61155013730265195</v>
+      </c>
+      <c r="H16">
+        <v>0.63585281619590694</v>
+      </c>
+      <c r="I16">
+        <v>5.3318341573079398E-4</v>
+      </c>
+      <c r="J16">
+        <v>3.5716692606608002E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.30543849860152095</v>
+      </c>
+      <c r="E17">
+        <v>0.84421933421328899</v>
+      </c>
+      <c r="F17">
+        <v>1.1496578328148099</v>
+      </c>
+      <c r="G17">
+        <v>0.66759787614167498</v>
+      </c>
+      <c r="H17">
+        <v>0.64794687574001197</v>
+      </c>
+      <c r="I17">
+        <v>2.0527839660644499E-4</v>
+      </c>
+      <c r="J17">
+        <v>4.2185783386230399E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0.30543849860152095</v>
+      </c>
+      <c r="E18">
+        <v>0.84421933421328899</v>
+      </c>
+      <c r="F18">
+        <v>1.1496578328148099</v>
+      </c>
+      <c r="G18">
+        <v>0.66759787614167498</v>
+      </c>
+      <c r="H18">
+        <v>0.64794687574001197</v>
+      </c>
+      <c r="I18">
+        <v>2.0527839660644499E-4</v>
+      </c>
+      <c r="J18">
+        <v>4.2185783386230399E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0.31433561622893691</v>
+      </c>
+      <c r="E19">
+        <v>0.86398995193730299</v>
+      </c>
+      <c r="F19">
+        <v>1.1783255681662399</v>
+      </c>
+      <c r="G19">
+        <v>0.65224854393360798</v>
+      </c>
+      <c r="H19">
+        <v>0.54587778367825601</v>
+      </c>
+      <c r="I19">
+        <v>1.11997127532958E-2</v>
+      </c>
+      <c r="J19">
+        <v>0.15151596069335899</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>0.35380040465267704</v>
+      </c>
+      <c r="E20">
+        <v>0.93323015486842298</v>
+      </c>
+      <c r="F20">
+        <v>1.2870305595211</v>
+      </c>
+      <c r="G20">
+        <v>0.78374252993561899</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>2.5566418965657501E-4</v>
+      </c>
+      <c r="J20">
+        <v>6.4976215362548802E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0.2515921726034851</v>
+      </c>
+      <c r="E21">
+        <v>0.889471485766125</v>
+      </c>
+      <c r="F21">
+        <v>1.1410636583696101</v>
+      </c>
+      <c r="G21">
+        <v>0.71328214411967095</v>
+      </c>
+      <c r="H21">
+        <v>0.61045558054290106</v>
+      </c>
+      <c r="I21">
+        <v>1.14043553670247E-4</v>
+      </c>
+      <c r="J21">
+        <v>2.40461031595865E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0.32358274775738394</v>
+      </c>
+      <c r="E22">
+        <v>0.826075085057426</v>
+      </c>
+      <c r="F22">
+        <v>1.1496578328148099</v>
+      </c>
+      <c r="G22">
+        <v>0.65825596340236403</v>
+      </c>
+      <c r="H22">
+        <v>0.60743752480802204</v>
+      </c>
+      <c r="I22">
+        <v>7.01665878295898E-4</v>
+      </c>
+      <c r="J22">
+        <v>8.5000197092691999E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0.32358274775738394</v>
+      </c>
+      <c r="E23">
+        <v>0.826075085057426</v>
+      </c>
+      <c r="F23">
+        <v>1.1496578328148099</v>
+      </c>
+      <c r="G23">
+        <v>0.65825596340236403</v>
+      </c>
+      <c r="H23">
+        <v>0.60743752480802204</v>
+      </c>
+      <c r="I23">
+        <v>7.01665878295898E-4</v>
+      </c>
+      <c r="J23">
+        <v>8.5000197092691999E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0.30068333339256492</v>
+      </c>
+      <c r="E24">
+        <v>0.87764223477367498</v>
+      </c>
+      <c r="F24">
+        <v>1.1783255681662399</v>
+      </c>
+      <c r="G24">
+        <v>0.65766011306858996</v>
+      </c>
+      <c r="H24">
+        <v>0.52977816973069503</v>
+      </c>
+      <c r="I24">
+        <v>1.6260941823323501E-2</v>
+      </c>
+      <c r="J24">
+        <v>0.15792202949523901</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0.35378383263570401</v>
+      </c>
+      <c r="E25">
+        <v>0.93324672688539601</v>
+      </c>
+      <c r="F25">
+        <v>1.2870305595211</v>
+      </c>
+      <c r="G25">
+        <v>0.78368080306725896</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>4.28438186645507E-4</v>
+      </c>
+      <c r="J25">
+        <v>1.8855969111124599E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>0.33359712832300414</v>
+      </c>
+      <c r="E26">
+        <v>0.80746653004660596</v>
+      </c>
+      <c r="F26">
+        <v>1.1410636583696101</v>
+      </c>
+      <c r="G26">
+        <v>0.63706081695594996</v>
+      </c>
+      <c r="H26">
+        <v>0.61607869430579598</v>
+      </c>
+      <c r="I26">
+        <v>2.87691752115885E-4</v>
+      </c>
+      <c r="J26">
+        <v>2.77932484944661E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0.28959819725725089</v>
+      </c>
+      <c r="E27">
+        <v>0.86005963555755904</v>
+      </c>
+      <c r="F27">
+        <v>1.1496578328148099</v>
+      </c>
+      <c r="G27">
+        <v>0.67780107377163001</v>
+      </c>
+      <c r="H27">
+        <v>0.59743445010589902</v>
+      </c>
+      <c r="I27">
+        <v>1.11134847005208E-3</v>
+      </c>
+      <c r="J27">
+        <v>5.4519971211751299E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>0.28959819725725089</v>
+      </c>
+      <c r="E28">
+        <v>0.86005963555755904</v>
+      </c>
+      <c r="F28">
+        <v>1.1496578328148099</v>
+      </c>
+      <c r="G28">
+        <v>0.67780107377163001</v>
+      </c>
+      <c r="H28">
+        <v>0.59743445010589902</v>
+      </c>
+      <c r="I28">
+        <v>1.11134847005208E-3</v>
+      </c>
+      <c r="J28">
+        <v>5.4519971211751299E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>0.28812829905224491</v>
+      </c>
+      <c r="E29">
+        <v>0.89019726911399499</v>
+      </c>
+      <c r="F29">
+        <v>1.1783255681662399</v>
+      </c>
+      <c r="G29">
+        <v>0.66242419747576997</v>
+      </c>
+      <c r="H29">
+        <v>0.54406687562640199</v>
+      </c>
+      <c r="I29">
+        <v>3.18106015523274E-2</v>
+      </c>
+      <c r="J29">
+        <v>0.169681469599405</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>0.354308036373572</v>
+      </c>
+      <c r="E30">
+        <v>0.93272252314752802</v>
+      </c>
+      <c r="F30">
+        <v>1.2870305595211</v>
+      </c>
+      <c r="G30">
+        <v>0.78385622541643196</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>8.19921493530273E-4</v>
+      </c>
+      <c r="J30">
+        <v>6.8633556365966797E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>0.32905725699248312</v>
+      </c>
+      <c r="E31">
+        <v>0.81200640137712699</v>
+      </c>
+      <c r="F31">
+        <v>1.1410636583696101</v>
+      </c>
+      <c r="G31">
+        <v>0.62926613582509205</v>
+      </c>
+      <c r="H31">
+        <v>0.63677098826116396</v>
+      </c>
+      <c r="I31">
+        <v>7.4227650960286397E-4</v>
+      </c>
+      <c r="J31">
+        <v>3.20672988891601E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>0.24837826088762094</v>
+      </c>
+      <c r="E32">
+        <v>0.90127957192718899</v>
+      </c>
+      <c r="F32">
+        <v>1.1496578328148099</v>
+      </c>
+      <c r="G32">
+        <v>0.70485834053594398</v>
+      </c>
+      <c r="H32">
+        <v>0.62837838496937104</v>
+      </c>
+      <c r="I32">
+        <v>2.9194752375284801E-2</v>
+      </c>
+      <c r="J32">
+        <v>1.1599858601888001E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>0.24837826088762094</v>
+      </c>
+      <c r="E33">
+        <v>0.90127957192718899</v>
+      </c>
+      <c r="F33">
+        <v>1.1496578328148099</v>
+      </c>
+      <c r="G33">
+        <v>0.70485834053594398</v>
+      </c>
+      <c r="H33">
+        <v>0.62837838496937104</v>
+      </c>
+      <c r="I33">
+        <v>2.9194752375284801E-2</v>
+      </c>
+      <c r="J33">
+        <v>1.1599858601888001E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ref="D34:D65" si="1">F34-E34</f>
+        <v>0.16629952448805985</v>
+      </c>
+      <c r="E34">
+        <v>1.0120260436781801</v>
+      </c>
+      <c r="F34">
+        <v>1.1783255681662399</v>
+      </c>
+      <c r="G34">
+        <v>0.79621230817202204</v>
+      </c>
+      <c r="H34">
+        <v>0.52711452402471004</v>
+      </c>
+      <c r="I34">
+        <v>0.127983649571736</v>
+      </c>
+      <c r="J34">
+        <v>5.2444140116373701E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>0.35357882213903802</v>
+      </c>
+      <c r="E35">
+        <v>0.933451737382062</v>
+      </c>
+      <c r="F35">
+        <v>1.2870305595211</v>
+      </c>
+      <c r="G35">
+        <v>0.784051930528885</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0.21422497431437099</v>
+      </c>
+      <c r="J35">
+        <v>6.0286521911620998E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>0.26172217945495813</v>
+      </c>
+      <c r="E36">
+        <v>0.87934147891465197</v>
+      </c>
+      <c r="F36">
+        <v>1.1410636583696101</v>
+      </c>
+      <c r="G36">
+        <v>0.70275799405065098</v>
+      </c>
+      <c r="H36">
+        <v>0.64111269151235994</v>
+      </c>
+      <c r="I36">
+        <v>2.8456052144368402E-2</v>
+      </c>
+      <c r="J36">
+        <v>1.09728177388509E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>0.31355430261312889</v>
+      </c>
+      <c r="E37">
+        <v>0.83610353020168104</v>
+      </c>
+      <c r="F37">
+        <v>1.1496578328148099</v>
+      </c>
+      <c r="G37">
+        <v>0.66028616833885301</v>
+      </c>
+      <c r="H37">
+        <v>0.60236960759380598</v>
+      </c>
+      <c r="I37">
+        <v>8.9502334594726497E-4</v>
+      </c>
+      <c r="J37">
+        <v>9.6416473388671806E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>0.31355430261312889</v>
+      </c>
+      <c r="E38">
+        <v>0.83610353020168104</v>
+      </c>
+      <c r="F38">
+        <v>1.1496578328148099</v>
+      </c>
+      <c r="G38">
+        <v>0.66028616833885301</v>
+      </c>
+      <c r="H38">
+        <v>0.60236960759380598</v>
+      </c>
+      <c r="I38">
+        <v>8.9502334594726497E-4</v>
+      </c>
+      <c r="J38">
+        <v>9.6416473388671806E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>0.27188806084320893</v>
+      </c>
+      <c r="E39">
+        <v>0.90643750732303097</v>
+      </c>
+      <c r="F39">
+        <v>1.1783255681662399</v>
+      </c>
+      <c r="G39">
+        <v>0.66262166251889898</v>
+      </c>
+      <c r="H39">
+        <v>0.559272401344037</v>
+      </c>
+      <c r="I39">
+        <v>5.38531939188639E-3</v>
+      </c>
+      <c r="J39">
+        <v>7.7314376831054601E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>0.35369336590878997</v>
+      </c>
+      <c r="E40">
+        <v>0.93333719361231005</v>
+      </c>
+      <c r="F40">
+        <v>1.2870305595211</v>
+      </c>
+      <c r="G40">
+        <v>0.78396684867772504</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0.17952680587768499</v>
+      </c>
+      <c r="J40">
+        <v>6.0186386108398403E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>0.27110647728531911</v>
+      </c>
+      <c r="E41">
+        <v>0.86995718108429099</v>
+      </c>
+      <c r="F41">
+        <v>1.1410636583696101</v>
+      </c>
+      <c r="G41">
+        <v>0.67172856243433998</v>
+      </c>
+      <c r="H41">
+        <v>0.59338564192112597</v>
+      </c>
+      <c r="I41">
+        <v>9.3698501586913997E-4</v>
+      </c>
+      <c r="J41">
+        <v>9.5361868540445906E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>0.37145978403311197</v>
+      </c>
+      <c r="E42">
+        <v>0.77819804878169796</v>
+      </c>
+      <c r="F42">
+        <v>1.1496578328148099</v>
+      </c>
+      <c r="G42">
+        <v>0.61968716046585903</v>
+      </c>
+      <c r="H42">
+        <v>0.59071857681322903</v>
+      </c>
+      <c r="I42">
+        <v>2.38746802012125E-2</v>
+      </c>
+      <c r="J42">
+        <v>1.38592720031738E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>0.37145978403311197</v>
+      </c>
+      <c r="E43">
+        <v>0.77819804878169796</v>
+      </c>
+      <c r="F43">
+        <v>1.1496578328148099</v>
+      </c>
+      <c r="G43">
+        <v>0.61968716046585903</v>
+      </c>
+      <c r="H43">
+        <v>0.59071857681322903</v>
+      </c>
+      <c r="I43">
+        <v>2.38746802012125E-2</v>
+      </c>
+      <c r="J43">
+        <v>1.38592720031738E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>0.31434015319092989</v>
+      </c>
+      <c r="E44">
+        <v>0.86398541497531001</v>
+      </c>
+      <c r="F44">
+        <v>1.1783255681662399</v>
+      </c>
+      <c r="G44">
+        <v>0.65991431021719404</v>
+      </c>
+      <c r="H44">
+        <v>0.52707895785214098</v>
+      </c>
+      <c r="I44">
+        <v>0.13003802299499501</v>
+      </c>
+      <c r="J44">
+        <v>7.2426001230875602E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>0.35237644462928597</v>
+      </c>
+      <c r="E45">
+        <v>0.93465411489181405</v>
+      </c>
+      <c r="F45">
+        <v>1.2870305595211</v>
+      </c>
+      <c r="G45">
+        <v>0.78022834103787497</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>9.8759015401204395E-2</v>
+      </c>
+      <c r="J45">
+        <v>5.5259863535563102E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>0.35288379599739106</v>
+      </c>
+      <c r="E46">
+        <v>0.78817986237221904</v>
+      </c>
+      <c r="F46">
+        <v>1.1410636583696101</v>
+      </c>
+      <c r="G46">
+        <v>0.62760133805284202</v>
+      </c>
+      <c r="H46">
+        <v>0.59290596907701798</v>
+      </c>
+      <c r="I46">
+        <v>2.1212100982665998E-2</v>
+      </c>
+      <c r="J46">
+        <v>1.39093399047851E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>0.37472966352153592</v>
+      </c>
+      <c r="E47">
+        <v>0.77492816929327402</v>
+      </c>
+      <c r="F47">
+        <v>1.1496578328148099</v>
+      </c>
+      <c r="G47">
+        <v>0.62214635262635298</v>
+      </c>
+      <c r="H47">
+        <v>0.577951893611515</v>
+      </c>
+      <c r="I47">
+        <v>0.198391755421956</v>
+      </c>
+      <c r="J47">
+        <v>1.45570437113444E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>0.37472966352153592</v>
+      </c>
+      <c r="E48">
+        <v>0.77492816929327402</v>
+      </c>
+      <c r="F48">
+        <v>1.1496578328148099</v>
+      </c>
+      <c r="G48">
+        <v>0.62214635262635298</v>
+      </c>
+      <c r="H48">
+        <v>0.577951893611515</v>
+      </c>
+      <c r="I48">
+        <v>0.198391755421956</v>
+      </c>
+      <c r="J48">
+        <v>1.45570437113444E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>0.32001970237817989</v>
+      </c>
+      <c r="E49">
+        <v>0.85830586578806001</v>
+      </c>
+      <c r="F49">
+        <v>1.1783255681662399</v>
+      </c>
+      <c r="G49">
+        <v>0.65817448165043502</v>
+      </c>
+      <c r="H49">
+        <v>0.53616946798907394</v>
+      </c>
+      <c r="I49">
+        <v>0.84951790173848396</v>
+      </c>
+      <c r="J49">
+        <v>6.3096682230631496E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="1"/>
+        <v>0.35381674890357206</v>
+      </c>
+      <c r="E50">
+        <v>0.93321381061752795</v>
+      </c>
+      <c r="F50">
+        <v>1.2870305595211</v>
+      </c>
+      <c r="G50">
+        <v>0.78263793005846105</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0.85187355677286702</v>
+      </c>
+      <c r="J50">
+        <v>5.5192311604817697E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="1"/>
+        <v>0.35966868851086509</v>
+      </c>
+      <c r="E51">
+        <v>0.78139496985874501</v>
+      </c>
+      <c r="F51">
+        <v>1.1410636583696101</v>
+      </c>
+      <c r="G51">
+        <v>0.62074123158532901</v>
+      </c>
+      <c r="H51">
+        <v>0.58685667086126203</v>
+      </c>
+      <c r="I51">
+        <v>0.194404045740763</v>
+      </c>
+      <c r="J51">
+        <v>1.3913313547770101E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>0.38185404554100388</v>
+      </c>
+      <c r="E52">
+        <v>0.76780378727380605</v>
+      </c>
+      <c r="F52">
+        <v>1.1496578328148099</v>
+      </c>
+      <c r="G52">
+        <v>0.61441615300671304</v>
+      </c>
+      <c r="H52">
+        <v>0.60198892646741797</v>
+      </c>
+      <c r="I52">
+        <v>0.36052838961283301</v>
+      </c>
+      <c r="J52">
+        <v>1.28367741902669E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="1"/>
+        <v>0.38185404554100388</v>
+      </c>
+      <c r="E53">
+        <v>0.76780378727380605</v>
+      </c>
+      <c r="F53">
+        <v>1.1496578328148099</v>
+      </c>
+      <c r="G53">
+        <v>0.61441615300671304</v>
+      </c>
+      <c r="H53">
+        <v>0.60198892646741797</v>
+      </c>
+      <c r="I53">
+        <v>0.36052838961283301</v>
+      </c>
+      <c r="J53">
+        <v>1.28367741902669E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="1"/>
+        <v>0.32748547664320093</v>
+      </c>
+      <c r="E54">
+        <v>0.85084009152303897</v>
+      </c>
+      <c r="F54">
+        <v>1.1783255681662399</v>
+      </c>
+      <c r="G54">
+        <v>0.65303697263852001</v>
+      </c>
+      <c r="H54">
+        <v>0.54063602221794205</v>
+      </c>
+      <c r="I54">
+        <v>0.33197673161824498</v>
+      </c>
+      <c r="J54">
+        <v>2.9531637827555302E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="1"/>
+        <v>0.35267944065595302</v>
+      </c>
+      <c r="E55">
+        <v>0.93435111886514699</v>
+      </c>
+      <c r="F55">
+        <v>1.2870305595211</v>
+      </c>
+      <c r="G55">
+        <v>0.78601243952539501</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>41.823434193929003</v>
+      </c>
+      <c r="J55">
+        <v>5.9069792429606097E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="1"/>
+        <v>0.36389308151461908</v>
+      </c>
+      <c r="E56">
+        <v>0.77717057685499102</v>
+      </c>
+      <c r="F56">
+        <v>1.1410636583696101</v>
+      </c>
+      <c r="G56">
+        <v>0.61972520489091398</v>
+      </c>
+      <c r="H56">
+        <v>0.61345665430377705</v>
+      </c>
+      <c r="I56">
+        <v>0.36020493507385198</v>
+      </c>
+      <c r="J56">
+        <v>1.2540976206461499E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="1"/>
+        <v>0.38151719551891394</v>
+      </c>
+      <c r="E57">
+        <v>0.76814063729589599</v>
+      </c>
+      <c r="F57">
+        <v>1.1496578328148099</v>
+      </c>
+      <c r="G57">
+        <v>0.61056910953949495</v>
+      </c>
+      <c r="H57">
+        <v>0.61990182591719001</v>
+      </c>
+      <c r="I57">
+        <v>6.9596989949544197</v>
+      </c>
+      <c r="J57">
+        <v>1.2761036554972301E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="1"/>
+        <v>0.38151719551891394</v>
+      </c>
+      <c r="E58">
+        <v>0.76814063729589599</v>
+      </c>
+      <c r="F58">
+        <v>1.1496578328148099</v>
+      </c>
+      <c r="G58">
+        <v>0.61056910953949495</v>
+      </c>
+      <c r="H58">
+        <v>0.61990182591719001</v>
+      </c>
+      <c r="I58">
+        <v>6.9596989949544197</v>
+      </c>
+      <c r="J58">
+        <v>1.2761036554972301E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="1"/>
+        <v>0.32539552670734895</v>
+      </c>
+      <c r="E59">
+        <v>0.85293004145889095</v>
+      </c>
+      <c r="F59">
+        <v>1.1783255681662399</v>
+      </c>
+      <c r="G59">
+        <v>0.65207474027994194</v>
+      </c>
+      <c r="H59">
+        <v>0.545343381533685</v>
+      </c>
+      <c r="I59">
+        <v>3.6888722578684399</v>
+      </c>
+      <c r="J59">
+        <v>1.5613794326782201E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="1"/>
+        <v>0.34842755444815399</v>
+      </c>
+      <c r="E60">
+        <v>0.93860300507294603</v>
+      </c>
+      <c r="F60">
+        <v>1.2870305595211</v>
+      </c>
+      <c r="G60">
+        <v>0.78848796453984604</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>850.83027704556696</v>
+      </c>
+      <c r="J60">
+        <v>6.4358711242675703E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="1"/>
+        <v>0.36904435262852309</v>
+      </c>
+      <c r="E61">
+        <v>0.77201930574108701</v>
+      </c>
+      <c r="F61">
+        <v>1.1410636583696101</v>
+      </c>
+      <c r="G61">
+        <v>0.61525988166252799</v>
+      </c>
+      <c r="H61">
+        <v>0.620263081612069</v>
+      </c>
+      <c r="I61">
+        <v>6.9142123858133901</v>
+      </c>
+      <c r="J61">
+        <v>1.28409067789713E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:J61" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J61">
+      <sortCondition ref="A1:A61"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>